--- a/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Hipocampus_UNIQUE.xlsx
+++ b/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Hipocampus_UNIQUE.xlsx
@@ -14,699 +14,1392 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="462">
   <si>
     <t>Accession Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>AUTS2_MOUSE</t>
   </si>
   <si>
+    <t>Autism susceptibility gene 2 protein homolog</t>
+  </si>
+  <si>
     <t>PRD16_MOUSE</t>
   </si>
   <si>
+    <t>Histone-lysine N-methyltransferase PRDM16 (EC 2.1.1.-) (PR domain zinc finger protein 16) (PR domain-containing protein 16) (Transcription factor MEL1) (MDS1/EVI1-like gene 1)</t>
+  </si>
+  <si>
     <t>MYOM3_MOUSE</t>
   </si>
   <si>
+    <t>Myomesin-3 (Myomesin family member 3)</t>
+  </si>
+  <si>
     <t>LZTS3_MOUSE</t>
   </si>
   <si>
+    <t>Leucine zipper putative tumor suppressor 3 (ProSAP-interacting protein 1) (ProSAPiP1)</t>
+  </si>
+  <si>
     <t>BRWD3_MOUSE</t>
   </si>
   <si>
+    <t>Bromodomain and WD repeat-containing protein 3</t>
+  </si>
+  <si>
     <t>BCORL_MOUSE</t>
   </si>
   <si>
+    <t>BCL-6 corepressor-like protein 1 (BCoR-L1) (BCoR-like protein 1)</t>
+  </si>
+  <si>
     <t>DISP3_MOUSE</t>
   </si>
   <si>
+    <t>Protein dispatched homolog 3 (Patched domain-containing protein 2) (RND-type protein RNDEu-2)</t>
+  </si>
+  <si>
     <t>TTLL8_MOUSE</t>
   </si>
   <si>
+    <t>Protein monoglycylase TTLL8 (EC 6.3.2.-) (Tubulin--tyrosine ligase-like protein 8)</t>
+  </si>
+  <si>
     <t>MOT7_MOUSE</t>
   </si>
   <si>
+    <t>Monocarboxylate transporter 7 (MCT 7) (Monocarboxylate transporter 6) (MCT 6) (Solute carrier family 16 member 6)</t>
+  </si>
+  <si>
     <t>BRPF1_MOUSE</t>
   </si>
   <si>
+    <t>Peregrin (Bromodomain and PHD finger-containing protein 1)</t>
+  </si>
+  <si>
     <t>ZN431_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 431 (Zinc finger protein 932)</t>
+  </si>
+  <si>
     <t>SI1L3_MOUSE</t>
   </si>
   <si>
+    <t>Signal-induced proliferation-associated 1-like protein 3 (SIPA1-like protein 3) (SPA-1-like protein 3)</t>
+  </si>
+  <si>
     <t>BUB1_MOUSE</t>
   </si>
   <si>
+    <t>Mitotic checkpoint serine/threonine-protein kinase BUB1 (mBUB1) (EC 2.7.11.1) (BUB1A)</t>
+  </si>
+  <si>
     <t>UNC4_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein unc-4 homolog (Homeobox protein Uncx4.1)</t>
+  </si>
+  <si>
     <t>ATN1_MOUSE</t>
   </si>
   <si>
+    <t>Atrophin-1 (Dentatorubral-pallidoluysian atrophy protein homolog)</t>
+  </si>
+  <si>
     <t>EXOC7_MOUSE</t>
   </si>
   <si>
+    <t>Exocyst complex component 7 (Exocyst complex component Exo70)</t>
+  </si>
+  <si>
     <t>STAG2_MOUSE</t>
   </si>
   <si>
+    <t>Cohesin subunit SA-2 (SCC3 homolog 2) (Stromal antigen 2)</t>
+  </si>
+  <si>
     <t>ANXA8_MOUSE</t>
   </si>
   <si>
+    <t>Annexin A8 (Annexin VIII) (Annexin-8)</t>
+  </si>
+  <si>
     <t>SYT3_MOUSE</t>
   </si>
   <si>
+    <t>Synaptotagmin-3 (Synaptotagmin III) (SytIII)</t>
+  </si>
+  <si>
     <t>BCAT2_MOUSE</t>
   </si>
   <si>
+    <t>Branched-chain-amino-acid aminotransferase, mitochondrial (BCAT(m)) (EC 2.6.1.42)</t>
+  </si>
+  <si>
     <t>PCD12_MOUSE</t>
   </si>
   <si>
+    <t>Protocadherin-12 (Vascular cadherin-2) (Vascular endothelial cadherin-2) (VE-cad-2) (VE-cadherin-2) [Cleaved into: Protocadherin-12, secreted form]</t>
+  </si>
+  <si>
     <t>RL35A_MOUSE</t>
   </si>
   <si>
+    <t>60S ribosomal protein L35a</t>
+  </si>
+  <si>
     <t>ATP9A_MOUSE</t>
   </si>
   <si>
+    <t>Probable phospholipid-transporting ATPase IIA (EC 7.6.2.1) (ATPase class II type 9A)</t>
+  </si>
+  <si>
     <t>S22A2_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 22 member 2 (Organic cation transporter 2)</t>
+  </si>
+  <si>
     <t>NSD1_MOUSE</t>
   </si>
   <si>
+    <t>Histone-lysine N-methyltransferase, H3 lysine-36 specific (EC 2.1.1.357) (H3-K36-HMTase) (Nuclear receptor-binding SET domain-containing protein 1) (NR-binding SET domain-containing protein)</t>
+  </si>
+  <si>
     <t>BECN1_MOUSE</t>
   </si>
   <si>
+    <t>Beclin-1 (Coiled-coil myosin-like BCL2-interacting protein) [Cleaved into: Beclin-1-C 35 kDa; Beclin-1-C 37 kDa]</t>
+  </si>
+  <si>
     <t>AKA10_MOUSE</t>
   </si>
   <si>
+    <t>A-kinase anchor protein 10, mitochondrial (AKAP-10) (Dual specificity A kinase-anchoring protein 2) (D-AKAP-2) (Protein kinase A-anchoring protein 10) (PRKA10)</t>
+  </si>
+  <si>
     <t>LIN7B_MOUSE</t>
   </si>
   <si>
+    <t>Protein lin-7 homolog B (Lin-7B) (Mammalian lin-seven protein 2) (MALS-2) (Vertebrate lin-7 homolog 2) (Veli-2)</t>
+  </si>
+  <si>
     <t>K1C10_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cytoskeletal 10 (56 kDa cytokeratin) (Cytokeratin-10) (CK-10) (Keratin, type I cytoskeletal 59 kDa) (Keratin-10) (K10)</t>
+  </si>
+  <si>
     <t>KIT_MOUSE</t>
   </si>
   <si>
+    <t>Mast/stem cell growth factor receptor Kit (SCFR) (EC 2.7.10.1) (Proto-oncogene c-Kit) (Tyrosine-protein kinase Kit) (CD antigen CD117)</t>
+  </si>
+  <si>
     <t>HVM49_MOUSE</t>
   </si>
   <si>
+    <t>Ig heavy chain V region 1-72 (Ig heavy chain V region VH558 B4)</t>
+  </si>
+  <si>
     <t>PTPRC_MOUSE</t>
   </si>
   <si>
+    <t>Receptor-type tyrosine-protein phosphatase C (EC 3.1.3.48) (Leukocyte common antigen) (L-CA) (Lymphocyte antigen 5) (Ly-5) (T200) (CD antigen CD45)</t>
+  </si>
+  <si>
     <t>WIPF3_MOUSE</t>
   </si>
   <si>
+    <t>WAS/WASL-interacting protein family member 3 (Corticosteroids and regional expression protein 16 homolog)</t>
+  </si>
+  <si>
     <t>SCG1_MOUSE</t>
   </si>
   <si>
+    <t>Secretogranin-1 (Chromogranin-B) (CgB) (Secretogranin I) (SgI) [Cleaved into: CCB peptide; PE-11]</t>
+  </si>
+  <si>
     <t>ZFP58_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 58 (Zfp-58) (Regulator of sex-limitation candidate 5) (Zinc finger protein Mfg-1)</t>
+  </si>
+  <si>
     <t>MIS_MOUSE</t>
   </si>
   <si>
+    <t>Muellerian-inhibiting factor (Anti-Muellerian hormone) (AMH) (Muellerian-inhibiting substance) (MIS)</t>
+  </si>
+  <si>
     <t>PLAP_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipase A-2-activating protein (PLA2P) (PLAP)</t>
+  </si>
+  <si>
     <t>HXD9_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein Hox-D9 (Homeobox protein Hox-4.4) (Homeobox protein Hox-5.2)</t>
+  </si>
+  <si>
     <t>CO2A1_MOUSE</t>
   </si>
   <si>
+    <t>Collagen alpha-1(II) chain (Alpha-1 type II collagen) [Cleaved into: Collagen alpha-1(II) chain; Chondrocalcin]</t>
+  </si>
+  <si>
     <t>GSTA3_MOUSE</t>
   </si>
   <si>
+    <t>Glutathione S-transferase A3 (EC 2.5.1.18) (GST class-alpha member 3) (Glutathione S-transferase Ya3) (Glutathione S-transferase Yc)</t>
+  </si>
+  <si>
     <t>RASK_MOUSE</t>
   </si>
   <si>
+    <t>GTPase KRas (K-Ras 2) (Ki-Ras) (c-K-ras) (c-Ki-ras) [Cleaved into: GTPase KRas, N-terminally processed]</t>
+  </si>
+  <si>
     <t>BMP8A_MOUSE</t>
   </si>
   <si>
+    <t>Bone morphogenetic protein 8A (BMP-8A) (Osteogenic protein 2) (OP-2)</t>
+  </si>
+  <si>
     <t>PTN12_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein phosphatase non-receptor type 12 (EC 3.1.3.48) (MPTP-PEST) (Protein-tyrosine phosphatase P19) (P19-PTP)</t>
+  </si>
+  <si>
     <t>VPS4B_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 4B (EC 3.6.4.6) (Suppressor of K(+) transport growth defect 1) (Protein SKD1)</t>
+  </si>
+  <si>
     <t>ARY3_MOUSE</t>
   </si>
   <si>
+    <t>Arylamine N-acetyltransferase 3 (EC 2.3.1.5) (Arylamide acetylase 3) (N-acetyltransferase type 3) (NAT-3)</t>
+  </si>
+  <si>
     <t>JAK1_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase JAK1 (EC 2.7.10.2) (Janus kinase 1) (JAK-1)</t>
+  </si>
+  <si>
     <t>FAF1_MOUSE</t>
   </si>
   <si>
+    <t>FAS-associated factor 1</t>
+  </si>
+  <si>
     <t>IF5_MOUSE</t>
   </si>
   <si>
+    <t>Eukaryotic translation initiation factor 5 (eIF-5)</t>
+  </si>
+  <si>
     <t>ATS19_MOUSE</t>
   </si>
   <si>
+    <t>A disintegrin and metalloproteinase with thrombospondin motifs 19 (ADAM-TS 19) (ADAM-TS19) (ADAMTS-19) (EC 3.4.24.-)</t>
+  </si>
+  <si>
     <t>RAC3_MOUSE</t>
   </si>
   <si>
+    <t>Ras-related C3 botulinum toxin substrate 3 (EC 3.6.5.2) (p21-Rac3)</t>
+  </si>
+  <si>
     <t>LZTS1_MOUSE</t>
   </si>
   <si>
+    <t>Leucine zipper putative tumor suppressor 1 (F37/Esophageal cancer-related gene-coding leucine-zipper motif) (Fez1)</t>
+  </si>
+  <si>
     <t>RL23A_MOUSE</t>
   </si>
   <si>
+    <t>60S ribosomal protein L23a</t>
+  </si>
+  <si>
     <t>KI3L1_MOUSE</t>
   </si>
   <si>
+    <t>Killer cell immunoglobulin-like receptor 3DL1 (CD antigen CD158e)</t>
+  </si>
+  <si>
     <t>NKX31_MOUSE</t>
   </si>
   <si>
+    <t>Homeobox protein Nkx-3.1 (Homeobox protein NK-3 homolog A)</t>
+  </si>
+  <si>
     <t>PP4C_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase 4 catalytic subunit (PP4C) (Pp4) (EC 3.1.3.16) (Protein phosphatase X) (PP-X)</t>
+  </si>
+  <si>
     <t>RBBP6_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase RBBP6 (EC 2.3.2.27) (Proliferation potential-related protein) (Protein P2P-R) (RING-type E3 ubiquitin transferase RBBP6) (Retinoblastoma-binding protein 6) (p53-associated cellular protein of testis)</t>
+  </si>
+  <si>
     <t>FMO5_MOUSE</t>
   </si>
   <si>
+    <t>Dimethylaniline monooxygenase [N-oxide-forming] 5 (EC 1.14.13.8) (Dimethylaniline oxidase 5) (Hepatic flavin-containing monooxygenase 5) (FMO 5)</t>
+  </si>
+  <si>
     <t>UNG_MOUSE</t>
   </si>
   <si>
+    <t>Uracil-DNA glycosylase (UDG) (EC 3.2.2.27)</t>
+  </si>
+  <si>
     <t>ENAH_MOUSE</t>
   </si>
   <si>
+    <t>Protein enabled homolog (NPC-derived proline-rich protein 1) (NDPP-1)</t>
+  </si>
+  <si>
     <t>CTP5B_MOUSE</t>
   </si>
   <si>
+    <t>Contactin-associated protein like 5-2 (Cell recognition molecule Caspr5-2) (Cell recognition molecule Caspr5b) (Contactin-associated protein-like 5b)</t>
+  </si>
+  <si>
     <t>DSEL_MOUSE</t>
   </si>
   <si>
+    <t>Dermatan-sulfate epimerase-like protein (EC 5.1.-.-)</t>
+  </si>
+  <si>
     <t>ALG11_MOUSE</t>
   </si>
   <si>
+    <t>GDP-Man:Man(3)GlcNAc(2)-PP-Dol alpha-1,2-mannosyltransferase (EC 2.4.1.131) (Asparagine-linked glycosylation protein 11 homolog) (Glycolipid 2-alpha-mannosyltransferase)</t>
+  </si>
+  <si>
     <t>K0930_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein KIAA0930 homolog</t>
+  </si>
+  <si>
     <t>FA83F_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM83F</t>
+  </si>
+  <si>
     <t>SLMAP_MOUSE</t>
   </si>
   <si>
+    <t>Sarcolemmal membrane-associated protein (Sarcolemmal-associated protein)</t>
+  </si>
+  <si>
     <t>ARMC2_MOUSE</t>
   </si>
   <si>
+    <t>Armadillo repeat-containing protein 2</t>
+  </si>
+  <si>
     <t>ARHG9_MOUSE</t>
   </si>
   <si>
+    <t>Rho guanine nucleotide exchange factor 9 (Collybistin) (Rac/Cdc42 guanine nucleotide exchange factor 9)</t>
+  </si>
+  <si>
     <t>CNGA4_MOUSE</t>
   </si>
   <si>
+    <t>Cyclic nucleotide-gated cation channel alpha-4 (Cyclic nucleotide-gated channel alpha-4) (CNG channel alpha-4) (CNG-4) (CNG4)</t>
+  </si>
+  <si>
     <t>TBAL3_MOUSE</t>
   </si>
   <si>
+    <t>Tubulin alpha chain-like 3</t>
+  </si>
+  <si>
     <t>SNX25_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-25</t>
+  </si>
+  <si>
     <t>XIRP2_MOUSE</t>
   </si>
   <si>
+    <t>Xin actin-binding repeat-containing protein 2 (Beta-xin) (Cardiomyopathy-associated protein 3) (Myogenic MEF2-activated Xin-related protein) (Myomaxin) (mXinbeta)</t>
+  </si>
+  <si>
     <t>ANR28_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase 6 regulatory ankyrin repeat subunit A (PP6-ARS-A) (Serine/threonine-protein phosphatase 6 regulatory subunit ARS-A) (Ankyrin repeat domain-containing protein 28) (Phosphatase interactor targeting protein hnRNP K) (PITK)</t>
+  </si>
+  <si>
     <t>PEX1_MOUSE</t>
   </si>
   <si>
+    <t>Peroxisome biogenesis factor 1 (Peroxin-1)</t>
+  </si>
+  <si>
     <t>RN150_MOUSE</t>
   </si>
   <si>
+    <t>RING finger protein 150</t>
+  </si>
+  <si>
     <t>LRC8B_MOUSE</t>
   </si>
   <si>
+    <t>Volume-regulated anion channel subunit LRRC8B (Leucine-rich repeat-containing protein 8B) (T-cell activation leucine repeat-rich protein) (TA-LRRP)</t>
+  </si>
+  <si>
     <t>COIL_MOUSE</t>
   </si>
   <si>
+    <t>Coilin (p80-coilin)</t>
+  </si>
+  <si>
     <t>LC7L3_MOUSE</t>
   </si>
   <si>
+    <t>Luc7-like protein 3 (Cisplatin resistance-associated-overexpressed protein)</t>
+  </si>
+  <si>
     <t>MYBPP_MOUSE</t>
   </si>
   <si>
+    <t>MYCBP-associated protein (AMAM-1) (AMY-1-binding protein 1) (AMAP-1)</t>
+  </si>
+  <si>
     <t>KCNH1_MOUSE</t>
   </si>
   <si>
+    <t>Potassium voltage-gated channel subfamily H member 1 (Ether-a-go-go potassium channel 1) (EAG channel 1) (EAG1) (m-eag) (Voltage-gated potassium channel subunit Kv10.1)</t>
+  </si>
+  <si>
     <t>CLPB_MOUSE</t>
   </si>
   <si>
+    <t>Caseinolytic peptidase B protein homolog (EC 3.6.1.3) (Suppressor of potassium transport defect 3)</t>
+  </si>
+  <si>
     <t>NIN_MOUSE</t>
   </si>
   <si>
+    <t>Ninein</t>
+  </si>
+  <si>
     <t>ADAM9_MOUSE</t>
   </si>
   <si>
+    <t>Disintegrin and metalloproteinase domain-containing protein 9 (ADAM 9) (EC 3.4.24.-) (Meltrin-gamma) (Metalloprotease/disintegrin/cysteine-rich protein 9) (Myeloma cell metalloproteinase)</t>
+  </si>
+  <si>
     <t>PRP4B_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase PRP4 homolog (EC 2.7.11.1) (PRP4 pre-mRNA-processing factor 4 homolog) (Pre-mRNA protein kinase)</t>
+  </si>
+  <si>
     <t>TNAP2_MOUSE</t>
   </si>
   <si>
+    <t>Tumor necrosis factor alpha-induced protein 2 (TNF alpha-induced protein 2) (Primary response gene B94 protein)</t>
+  </si>
+  <si>
     <t>KCNA4_MOUSE</t>
   </si>
   <si>
+    <t>Potassium voltage-gated channel subfamily A member 4 (Voltage-gated potassium channel subunit Kv1.4)</t>
+  </si>
+  <si>
     <t>JARD2_MOUSE</t>
   </si>
   <si>
+    <t>Protein Jumonji (Jumonji/ARID domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>NUP62_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear pore glycoprotein p62 (62 kDa nucleoporin) (Nucleoporin Nup62)</t>
+  </si>
+  <si>
     <t>MEA1_MOUSE</t>
   </si>
   <si>
+    <t>Male-enhanced antigen 1 (MEA-1)</t>
+  </si>
+  <si>
     <t>IN80D_MOUSE</t>
   </si>
   <si>
+    <t>INO80 complex subunit D</t>
+  </si>
+  <si>
     <t>RADIL_MOUSE</t>
   </si>
   <si>
+    <t>Ras-associating and dilute domain-containing protein</t>
+  </si>
+  <si>
     <t>PEPL1_MOUSE</t>
   </si>
   <si>
+    <t>Probable aminopeptidase NPEPL1 (EC 3.4.11.-) (Aminopeptidase-like 1)</t>
+  </si>
+  <si>
     <t>PAXI1_MOUSE</t>
   </si>
   <si>
+    <t>PAX-interacting protein 1 (PAX transactivation activation domain-interacting protein)</t>
+  </si>
+  <si>
     <t>DGKQ_MOUSE</t>
   </si>
   <si>
+    <t>Diacylglycerol kinase theta (DAG kinase theta) (EC 2.7.1.107) (Diglyceride kinase theta) (DGK-theta)</t>
+  </si>
+  <si>
     <t>SPRE3_MOUSE</t>
   </si>
   <si>
+    <t>Sprouty-related, EVH1 domain-containing protein 3 (Spred-3)</t>
+  </si>
+  <si>
     <t>SENP6_MOUSE</t>
   </si>
   <si>
+    <t>Sentrin-specific protease 6 (EC 3.4.22.-) (SUMO-1-specific protease 1) (Sentrin/SUMO-specific protease SENP6)</t>
+  </si>
+  <si>
     <t>SNX31_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-31</t>
+  </si>
+  <si>
     <t>AAKB2_MOUSE</t>
   </si>
   <si>
+    <t>5'-AMP-activated protein kinase subunit beta-2 (AMPK subunit beta-2)</t>
+  </si>
+  <si>
     <t>NAA35_MOUSE</t>
   </si>
   <si>
+    <t>N-alpha-acetyltransferase 35, NatC auxiliary subunit (Embryonic growth-associated protein) (Protein MAK10 homolog)</t>
+  </si>
+  <si>
     <t>TEX2_MOUSE</t>
   </si>
   <si>
+    <t>Testis-expressed protein 2</t>
+  </si>
+  <si>
     <t>LST2_MOUSE</t>
   </si>
   <si>
+    <t>Lateral signaling target protein 2 homolog (Zinc finger FYVE domain-containing protein 28)</t>
+  </si>
+  <si>
     <t>CNOT1_MOUSE</t>
   </si>
   <si>
+    <t>CCR4-NOT transcription complex subunit 1 (CCR4-associated factor 1)</t>
+  </si>
+  <si>
     <t>TAOK2_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase TAO2 (EC 2.7.11.1) (Thousand and one amino acid protein 2)</t>
+  </si>
+  <si>
     <t>RECQ4_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent DNA helicase Q4 (EC 3.6.4.12) (DNA helicase, RecQ-like type 4) (RecQ4) (RecQ protein-like 4)</t>
+  </si>
+  <si>
     <t>WNK4_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase WNK4 (EC 2.7.11.1) (Protein kinase lysine-deficient 4) (Protein kinase with no lysine 4)</t>
+  </si>
+  <si>
     <t>NAA15_MOUSE</t>
   </si>
   <si>
+    <t>N-alpha-acetyltransferase 15, NatA auxiliary subunit (N-terminal acetyltransferase 1) (NMDA receptor-regulated protein 1) (Protein tubedown-1)</t>
+  </si>
+  <si>
     <t>PGRC2_MOUSE</t>
   </si>
   <si>
+    <t>Membrane-associated progesterone receptor component 2</t>
+  </si>
+  <si>
     <t>TRI62_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase TRIM62 (EC 2.3.2.27) (RING-type E3 ubiquitin transferase TRIM62) (Tripartite motif-containing protein 62)</t>
+  </si>
+  <si>
     <t>ZBED4_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger BED domain-containing protein 4</t>
+  </si>
+  <si>
     <t>BTBDA_MOUSE</t>
   </si>
   <si>
+    <t>BTB/POZ domain-containing protein 10 (Glucose metabolism-related protein 1)</t>
+  </si>
+  <si>
     <t>REPS2_MOUSE</t>
   </si>
   <si>
+    <t>RalBP1-associated Eps domain-containing protein 2 (Partner of RalBP1) (RalBP1-interacting protein 2)</t>
+  </si>
+  <si>
     <t>CYH4_MOUSE</t>
   </si>
   <si>
+    <t>Cytohesin-4 (PH, SEC7 and coiled-coil domain-containing protein 4)</t>
+  </si>
+  <si>
     <t>SLIK3_MOUSE</t>
   </si>
   <si>
+    <t>SLIT and NTRK-like protein 3</t>
+  </si>
+  <si>
     <t>ZFYV1_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger FYVE domain-containing protein 1</t>
+  </si>
+  <si>
     <t>FAP24_MOUSE</t>
   </si>
   <si>
+    <t>Fanconi anemia core complex-associated protein 24 (Fanconi anemia-associated protein of 24 kDa)</t>
+  </si>
+  <si>
     <t>CK049_MOUSE</t>
   </si>
   <si>
+    <t>UPF0705 protein C11orf49 homolog</t>
+  </si>
+  <si>
     <t>UNC80_MOUSE</t>
   </si>
   <si>
+    <t>Protein unc-80 homolog (mUNC-80)</t>
+  </si>
+  <si>
     <t>COQ3_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquinone biosynthesis O-methyltransferase, mitochondrial (3-demethylubiquinol 3-O-methyltransferase) (EC 2.1.1.64) (Polyprenyldihydroxybenzoate methyltransferase) (EC 2.1.1.114)</t>
+  </si>
+  <si>
     <t>F10C1_MOUSE</t>
   </si>
   <si>
+    <t>Protein FRA10AC1 homolog</t>
+  </si>
+  <si>
     <t>DPCD_MOUSE</t>
   </si>
   <si>
+    <t>Protein DPCD</t>
+  </si>
+  <si>
     <t>M4K5_MOUSE</t>
   </si>
   <si>
+    <t>Mitogen-activated protein kinase kinase kinase kinase 5 (EC 2.7.11.1) (MAPK/ERK kinase kinase kinase 5) (MEK kinase kinase 5) (MEKKK 5)</t>
+  </si>
+  <si>
     <t>RFIP4_MOUSE</t>
   </si>
   <si>
+    <t>Rab11 family-interacting protein 4 (FIP4-Rab11) (Rab11-FIP4) (mRab11-FIP4A)</t>
+  </si>
+  <si>
     <t>K1671_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein KIAA1671</t>
+  </si>
+  <si>
     <t>KLHL7_MOUSE</t>
   </si>
   <si>
+    <t>Kelch-like protein 7</t>
+  </si>
+  <si>
     <t>CSN7B_MOUSE</t>
   </si>
   <si>
+    <t>COP9 signalosome complex subunit 7b (SGN7b) (Signalosome subunit 7b) (JAB1-containing signalosome subunit 7b)</t>
+  </si>
+  <si>
     <t>NUDT9_MOUSE</t>
   </si>
   <si>
+    <t>ADP-ribose pyrophosphatase, mitochondrial (EC 3.6.1.13) (ADP-ribose diphosphatase) (ADP-ribose phosphohydrolase) (Adenosine diphosphoribose pyrophosphatase) (ADPR-PPase) (Nucleoside diphosphate-linked moiety X motif 9) (Nudix motif 9)</t>
+  </si>
+  <si>
     <t>GLPK5_MOUSE</t>
   </si>
   <si>
+    <t>Putative glycerol kinase 5 (GK 5) (Glycerokinase 5) (EC 2.7.1.30) (ATP:glycerol 3-phosphotransferase 5)</t>
+  </si>
+  <si>
     <t>CC169_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 169</t>
+  </si>
+  <si>
     <t>TBC17_MOUSE</t>
   </si>
   <si>
+    <t>TBC1 domain family member 17</t>
+  </si>
+  <si>
     <t>ZC3H6_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger CCCH domain-containing protein 6</t>
+  </si>
+  <si>
     <t>RHG25_MOUSE</t>
   </si>
   <si>
+    <t>Rho GTPase-activating protein 25 (Rho-type GTPase-activating protein 25)</t>
+  </si>
+  <si>
     <t>ZN451_MOUSE</t>
   </si>
   <si>
+    <t>E3 SUMO-protein ligase ZNF451 (EC 2.3.2.-) (E3 SUMO-protein transferase ZNF451) (Zinc finger protein 451)</t>
+  </si>
+  <si>
     <t>PKHH2_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family H member 2</t>
+  </si>
+  <si>
     <t>HDAC7_MOUSE</t>
   </si>
   <si>
+    <t>Histone deacetylase 7 (HD7) (EC 3.5.1.98) (Histone deacetylase 7A) (HD7a)</t>
+  </si>
+  <si>
     <t>RAE1L_MOUSE</t>
   </si>
   <si>
+    <t>mRNA export factor (Rae1 protein homolog) (mRNA-associated protein mrnp 41)</t>
+  </si>
+  <si>
     <t>PRSR2_MOUSE</t>
   </si>
   <si>
+    <t>Proline and serine-rich protein 2</t>
+  </si>
+  <si>
     <t>TSR2_MOUSE</t>
   </si>
   <si>
+    <t>Pre-rRNA-processing protein TSR2 homolog</t>
+  </si>
+  <si>
     <t>LRIF1_MOUSE</t>
   </si>
   <si>
+    <t>Ligand-dependent nuclear receptor-interacting factor 1</t>
+  </si>
+  <si>
     <t>PPAP_MOUSE</t>
   </si>
   <si>
+    <t>Prostatic acid phosphatase (EC 3.1.3.2) (5'-nucleotidase) (5'-NT) (EC 3.1.3.5) (Acid phosphatase 3) (Ecto-5'-nucleotidase) (Fluoride-resistant acid phosphatase) (FRAP) (Thiamine monophosphatase) (TMPase)</t>
+  </si>
+  <si>
     <t>UACA_MOUSE</t>
   </si>
   <si>
+    <t>Uveal autoantigen with coiled-coil domains and ankyrin repeats (Nuclear membrane-binding protein) (Nucling)</t>
+  </si>
+  <si>
     <t>CACO1_MOUSE</t>
   </si>
   <si>
+    <t>Calcium-binding and coiled-coil domain-containing protein 1 (Coiled-coil coactivator protein)</t>
+  </si>
+  <si>
     <t>EP400_MOUSE</t>
   </si>
   <si>
+    <t>E1A-binding protein p400 (EC 3.6.4.-) (Domino homolog) (mDomino) (p400 kDa SWI2/SNF2-related protein)</t>
+  </si>
+  <si>
     <t>DPYD_MOUSE</t>
   </si>
   <si>
+    <t>Dihydropyrimidine dehydrogenase [NADP(+)] (DHPDHase) (DPD) (EC 1.3.1.2) (Dihydrothymine dehydrogenase) (Dihydrouracil dehydrogenase)</t>
+  </si>
+  <si>
     <t>EI2BE_MOUSE</t>
   </si>
   <si>
+    <t>Translation initiation factor eIF-2B subunit epsilon (eIF-2B GDP-GTP exchange factor subunit epsilon)</t>
+  </si>
+  <si>
     <t>ASB2_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat and SOCS box protein 2 (ASB-2)</t>
+  </si>
+  <si>
     <t>TPC12_MOUSE</t>
   </si>
   <si>
+    <t>Trafficking protein particle complex subunit 12 (Tetratricopeptide repeat protein 15) (TPR repeat protein 15)</t>
+  </si>
+  <si>
     <t>UBP45_MOUSE</t>
   </si>
   <si>
+    <t>Ubiquitin carboxyl-terminal hydrolase 45 (EC 3.4.19.12) (Deubiquitinating enzyme 45) (Ubiquitin thioesterase 45) (Ubiquitin-specific-processing protease 45)</t>
+  </si>
+  <si>
     <t>ALMS1_MOUSE</t>
   </si>
   <si>
+    <t>Alstrom syndrome protein 1 homolog</t>
+  </si>
+  <si>
     <t>HECW1_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase HECW1 (EC 2.3.2.26) (HECT, C2 and WW domain-containing protein 1) (HECT-type E3 ubiquitin transferase HECW1) (NEDD4-like E3 ubiquitin-protein ligase 1) (mNEDL1)</t>
+  </si>
+  <si>
     <t>RSLAA_MOUSE</t>
   </si>
   <si>
+    <t>Ras-like protein family member 10A (Ras-like protein RRP22) (Ras-related protein on chromosome 22 homolog)</t>
+  </si>
+  <si>
     <t>ICT1_MOUSE</t>
   </si>
   <si>
+    <t>Peptidyl-tRNA hydrolase ICT1, mitochondrial (EC 3.1.1.29) (39S ribosomal protein L58, mitochondrial) (MRP-L58) (Immature colon carcinoma transcript 1 protein homolog)</t>
+  </si>
+  <si>
     <t>C1QT4_MOUSE</t>
   </si>
   <si>
+    <t>Complement C1q tumor necrosis factor-related protein 4 (C1q/TNF-related protein 4)</t>
+  </si>
+  <si>
     <t>NU133_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear pore complex protein Nup133 (133 kDa nucleoporin) (Nucleoporin Nup133)</t>
+  </si>
+  <si>
     <t>VP37B_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 37B (Vps37B) (ESCRT-I complex subunit VPS37B)</t>
+  </si>
+  <si>
     <t>STAP2_MOUSE</t>
   </si>
   <si>
+    <t>Signal-transducing adaptor protein 2 (STAP-2)</t>
+  </si>
+  <si>
     <t>STAC2_MOUSE</t>
   </si>
   <si>
+    <t>SH3 and cysteine-rich domain-containing protein 2 (24b2/STAC2) (Src homology 3 and cysteine-rich domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>RORB_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear receptor ROR-beta (Nuclear receptor RZR-beta) (Nuclear receptor subfamily 1 group F member 2) (Retinoid-related orphan receptor-beta)</t>
+  </si>
+  <si>
     <t>CCD80_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 80 (Up-regulated in BRS-3 deficient mouse)</t>
+  </si>
+  <si>
     <t>PTH2_MOUSE</t>
   </si>
   <si>
+    <t>Peptidyl-tRNA hydrolase 2, mitochondrial (PTH 2) (EC 3.1.1.29)</t>
+  </si>
+  <si>
     <t>MMGT2_MOUSE</t>
   </si>
   <si>
+    <t>Membrane magnesium transporter 2</t>
+  </si>
+  <si>
     <t>ARAP3_MOUSE</t>
   </si>
   <si>
+    <t>Arf-GAP with Rho-GAP domain, ANK repeat and PH domain-containing protein 3 (Centaurin-delta-3) (Cnt-d3) (Dual specificity Rho- and Arf-GTPase-activating protein 1)</t>
+  </si>
+  <si>
     <t>CC50A_MOUSE</t>
   </si>
   <si>
+    <t>Cell cycle control protein 50A (P4-ATPase flippase complex beta subunit TMEM30A) (Transmembrane protein 30A)</t>
+  </si>
+  <si>
     <t>TDRD3_MOUSE</t>
   </si>
   <si>
+    <t>Tudor domain-containing protein 3</t>
+  </si>
+  <si>
     <t>TXND5_MOUSE</t>
   </si>
   <si>
+    <t>Thioredoxin domain-containing protein 5 (Endoplasmic reticulum resident protein 46) (ER protein 46) (ERp46) (Plasma cell-specific thioredoxin-related protein) (PC-TRP) (Thioredoxin-like protein p46)</t>
+  </si>
+  <si>
     <t>DGLB_MOUSE</t>
   </si>
   <si>
+    <t>Sn1-specific diacylglycerol lipase beta (DGL-beta) (EC 3.1.1.-)</t>
+  </si>
+  <si>
     <t>EVA1A_MOUSE</t>
   </si>
   <si>
+    <t>Protein eva-1 homolog A (Protein FAM176A) (Transmembrane protein 166)</t>
+  </si>
+  <si>
     <t>RN167_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase RNF167 (EC 2.3.2.27) (RING finger protein 167) (RING-type E3 ubiquitin transferase RNF167)</t>
+  </si>
+  <si>
     <t>MYH7_MOUSE</t>
   </si>
   <si>
+    <t>Myosin-7 (Myosin heavy chain 7) (Myosin heavy chain slow isoform) (MyHC-slow) (Myosin heavy chain, cardiac muscle beta isoform) (MyHC-beta)</t>
+  </si>
+  <si>
     <t>CELR3_MOUSE</t>
   </si>
   <si>
+    <t>Cadherin EGF LAG seven-pass G-type receptor 3</t>
+  </si>
+  <si>
     <t>SYT17_MOUSE</t>
   </si>
   <si>
+    <t>Synaptotagmin-17 (Protein B/K) (Synaptotagmin XVII) (SytXVII)</t>
+  </si>
+  <si>
     <t>GMPPA_MOUSE</t>
   </si>
   <si>
+    <t>Mannose-1-phosphate guanyltransferase alpha (GDP-mannose pyrophosphorylase A) (GTP-mannose-1-phosphate guanylyltransferase alpha)</t>
+  </si>
+  <si>
     <t>MARC2_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial amidoxime reducing component 2 (mARC2) (EC 1.7.-.-) (Molybdenum cofactor sulfurase C-terminal domain-containing protein 2) (MOSC domain-containing protein 2) (Moco sulfurase C-terminal domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>CP070_MOUSE</t>
   </si>
   <si>
+    <t>UPF0183 protein C16orf70 homolog</t>
+  </si>
+  <si>
     <t>DCMC_MOUSE</t>
   </si>
   <si>
+    <t>Malonyl-CoA decarboxylase, mitochondrial (MCD) (EC 4.1.1.9)</t>
+  </si>
+  <si>
     <t>TRABD_MOUSE</t>
   </si>
   <si>
+    <t>TraB domain-containing protein</t>
+  </si>
+  <si>
     <t>PDXD1_MOUSE</t>
   </si>
   <si>
+    <t>Pyridoxal-dependent decarboxylase domain-containing protein 1 (EC 4.1.1.-)</t>
+  </si>
+  <si>
     <t>CAR14_MOUSE</t>
   </si>
   <si>
+    <t>Caspase recruitment domain-containing protein 14 (Bcl10-interacting MAGUK protein 2) (Bimp2)</t>
+  </si>
+  <si>
     <t>TARA_MOUSE</t>
   </si>
   <si>
+    <t>TRIO and F-actin-binding protein (Protein Tara) (Trio-associated repeat on actin)</t>
+  </si>
+  <si>
     <t>TTC5_MOUSE</t>
   </si>
   <si>
+    <t>Tetratricopeptide repeat protein 5 (TPR repeat protein 5) (Stress-responsive activator of p300)</t>
+  </si>
+  <si>
     <t>CH1B1_MOUSE</t>
   </si>
   <si>
+    <t>Charged multivesicular body protein 1b-1 (Chromatin-modifying protein 1b-1) (CHMP1b-1)</t>
+  </si>
+  <si>
     <t>HSPB2_MOUSE</t>
   </si>
   <si>
+    <t>Heat shock protein beta-2 (HspB2)</t>
+  </si>
+  <si>
     <t>NSE3_MOUSE</t>
   </si>
   <si>
+    <t>Non-structural maintenance of chromosomes element 3 homolog (Non-SMC element 3 homolog) (MAGE-G1 antigen) (Necdin-like protein 2)</t>
+  </si>
+  <si>
     <t>VPS25_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein-sorting-associated protein 25 (ESCRT-II complex subunit VPS25)</t>
+  </si>
+  <si>
     <t>CENPM_MOUSE</t>
   </si>
   <si>
+    <t>Centromere protein M (CENP-M) (Proliferation-associated nuclear element protein 1)</t>
+  </si>
+  <si>
     <t>FGOP2_MOUSE</t>
   </si>
   <si>
+    <t>FGFR1 oncogene partner 2 homolog</t>
+  </si>
+  <si>
     <t>PFD1_MOUSE</t>
   </si>
   <si>
+    <t>Prefoldin subunit 1</t>
+  </si>
+  <si>
     <t>ZDH13_MOUSE</t>
   </si>
   <si>
+    <t>Palmitoyltransferase ZDHHC13 (EC 2.3.1.225) (Huntingtin-interacting protein 14-related protein) (HIP14-related protein) (Zinc finger DHHC domain-containing protein 13) (DHHC-13)</t>
+  </si>
+  <si>
     <t>BCL7A_MOUSE</t>
   </si>
   <si>
+    <t>B-cell CLL/lymphoma 7 protein family member A</t>
+  </si>
+  <si>
     <t>CUED2_MOUSE</t>
   </si>
   <si>
+    <t>CUE domain-containing protein 2</t>
+  </si>
+  <si>
     <t>HS12B_MOUSE</t>
   </si>
   <si>
+    <t>Heat shock 70 kDa protein 12B</t>
+  </si>
+  <si>
     <t>KAD7_MOUSE</t>
   </si>
   <si>
+    <t>Adenylate kinase 7 (AK 7) (EC 2.7.4.3) (EC 2.7.4.6) (ATP-AMP transphosphorylase 7)</t>
+  </si>
+  <si>
     <t>F166A_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM166A</t>
+  </si>
+  <si>
     <t>SPB12_MOUSE</t>
   </si>
   <si>
+    <t>Serpin B12</t>
+  </si>
+  <si>
     <t>F186A_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM186A</t>
+  </si>
+  <si>
     <t>RHBT1_MOUSE</t>
   </si>
   <si>
+    <t>Rho-related BTB domain-containing protein 1</t>
+  </si>
+  <si>
     <t>ICA_MOUSE</t>
   </si>
   <si>
+    <t>Inhibitor of carbonic anhydrase</t>
+  </si>
+  <si>
     <t>STR6L_MOUSE</t>
   </si>
   <si>
+    <t>Stimulated by retinoic acid gene 6 protein-like (STRA6-like protein) (Retinol-binding protein 4 receptor 2) (RBP4 receptor 2)</t>
+  </si>
+  <si>
     <t>NVL_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear valosin-containing protein-like (NVLp) (Nuclear VCP-like protein)</t>
+  </si>
+  <si>
     <t>HCAR2_MOUSE</t>
   </si>
   <si>
+    <t>Hydroxycarboxylic acid receptor 2 (G-protein coupled receptor 109) (G-protein coupled receptor 109A) (G-protein coupled receptor HM74) (Niacin receptor 1) (Nicotinic acid receptor) (Protein PUMA-G)</t>
+  </si>
+  <si>
     <t>PLGT2_MOUSE</t>
   </si>
   <si>
+    <t>Protein O-glucosyltransferase 2 (EC 2.4.1.-) (Endoplasmic reticulum resident protein 58) (ER protein 58) (ERp58) (KDEL motif-containing protein 1) (Protein O-xylosyltransferase POGLUT2) (EC 2.4.2.-)</t>
+  </si>
+  <si>
     <t>ANKH_MOUSE</t>
   </si>
   <si>
+    <t>Progressive ankylosis protein (Fn54 protein)</t>
+  </si>
+  <si>
     <t>DPOLM_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed DNA/RNA polymerase mu (Pol Mu) (EC 2.7.7.7) (Terminal transferase)</t>
+  </si>
+  <si>
     <t>CRBB3_MOUSE</t>
   </si>
   <si>
+    <t>Beta-crystallin B3 (Beta-B3 crystallin) [Cleaved into: Beta-crystallin B3, N-terminally processed]</t>
+  </si>
+  <si>
     <t>NSMA2_MOUSE</t>
   </si>
   <si>
+    <t>Sphingomyelin phosphodiesterase 3 (EC 3.1.4.12) (Neutral sphingomyelinase 2) (nSMase-2) (nSMase2) (Neutral sphingomyelinase II)</t>
+  </si>
+  <si>
     <t>TREM1_MOUSE</t>
   </si>
   <si>
+    <t>Triggering receptor expressed on myeloid cells 1 (TREM-1) (CD antigen CD354)</t>
+  </si>
+  <si>
     <t>ECEL1_MOUSE</t>
   </si>
   <si>
+    <t>Endothelin-converting enzyme-like 1 (EC 3.4.24.-) (Damage-induced neuronal endopeptidase) (Xce protein)</t>
+  </si>
+  <si>
     <t>BIR1B_MOUSE</t>
   </si>
   <si>
+    <t>Baculoviral IAP repeat-containing protein 1b (Neuronal apoptosis inhibitory protein 2)</t>
+  </si>
+  <si>
     <t>F16P1_MOUSE</t>
   </si>
   <si>
+    <t>Fructose-1,6-bisphosphatase 1 (FBPase 1) (EC 3.1.3.11) (D-fructose-1,6-bisphosphate 1-phosphohydrolase 1) (Fructose-1,6-bisphosphatase isozyme 3) (FBPase 3) (Liver FBPase)</t>
+  </si>
+  <si>
     <t>LAT2_MOUSE</t>
   </si>
   <si>
+    <t>Large neutral amino acids transporter small subunit 2 (L-type amino acid transporter 2) (mLAT2) (Solute carrier family 7 member 8)</t>
+  </si>
+  <si>
     <t>SO1A1_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier organic anion transporter family member 1A1 (Sodium-independent organic anion-transporting polypeptide 1) (OATP-1) (Solute carrier family 21 member 1)</t>
+  </si>
+  <si>
     <t>NFU1_MOUSE</t>
   </si>
   <si>
+    <t>NFU1 iron-sulfur cluster scaffold homolog, mitochondrial (HIRA-interacting protein 5) (mHIRIP5)</t>
+  </si>
+  <si>
     <t>CO4A3_MOUSE</t>
   </si>
   <si>
+    <t>Collagen alpha-3(IV) chain [Cleaved into: Tumstatin]</t>
+  </si>
+  <si>
     <t>SCNBA_MOUSE</t>
   </si>
   <si>
+    <t>Sodium channel protein type 11 subunit alpha (NaN) (Sensory neuron sodium channel 2) (Sodium channel protein type XI subunit alpha) (Voltage-gated sodium channel subunit alpha Nav1.9)</t>
+  </si>
+  <si>
     <t>LHX6_MOUSE</t>
   </si>
   <si>
+    <t>LIM/homeobox protein Lhx6 (LIM homeobox protein 6) (LIM/homeobox protein Lhx6.1)</t>
+  </si>
+  <si>
     <t>HIC1_MOUSE</t>
   </si>
   <si>
+    <t>Hypermethylated in cancer 1 protein (Hic-1)</t>
+  </si>
+  <si>
     <t>KHDR3_MOUSE</t>
   </si>
   <si>
+    <t>KH domain-containing, RNA-binding, signal transduction-associated protein 3 (RNA-binding protein Etoile) (Sam68-like mammalian protein 2) (SLM-2)</t>
+  </si>
+  <si>
     <t>CCS_MOUSE</t>
   </si>
   <si>
+    <t>Copper chaperone for superoxide dismutase (Superoxide dismutase copper chaperone)</t>
+  </si>
+  <si>
     <t>CLCKA_MOUSE</t>
   </si>
   <si>
+    <t>Chloride channel protein ClC-Ka (Chloride channel Ka) (ClC-K1)</t>
+  </si>
+  <si>
     <t>NDK3_MOUSE</t>
   </si>
   <si>
+    <t>Nucleoside diphosphate kinase 3 (NDK 3) (NDP kinase 3) (EC 2.7.4.6) (DR-nm23) (Nucleoside diphosphate kinase C) (NDPKC) (nm23-M3)</t>
+  </si>
+  <si>
     <t>TLE6_MOUSE</t>
   </si>
   <si>
+    <t>Transducin-like enhancer protein 6 (Groucho-related protein 6)</t>
+  </si>
+  <si>
     <t>S26A3_MOUSE</t>
   </si>
   <si>
+    <t>Chloride anion exchanger (Down-regulated in adenoma) (Protein DRA) (Solute carrier family 26 member 3)</t>
+  </si>
+  <si>
     <t>MORC1_MOUSE</t>
   </si>
   <si>
+    <t>MORC family CW-type zinc finger protein 1 (Protein microrchidia)</t>
+  </si>
+  <si>
     <t>EXTL3_MOUSE</t>
   </si>
   <si>
+    <t>Exostosin-like 3 (EC 2.4.1.223) (Glucuronyl-galactosyl-proteoglycan 4-alpha-N-acetylglucosaminyltransferase) (Multiple exostosis-like protein 3)</t>
+  </si>
+  <si>
     <t>RGAP1_MOUSE</t>
   </si>
   <si>
+    <t>Rac GTPase-activating protein 1 (Male germ cell RacGap) (MgcRacGAP)</t>
+  </si>
+  <si>
     <t>WDR46_MOUSE</t>
   </si>
   <si>
+    <t>WD repeat-containing protein 46 (WD repeat-containing protein BING4)</t>
+  </si>
+  <si>
     <t>ITSN2_MOUSE</t>
   </si>
   <si>
+    <t>Intersectin-2 (EH domain and SH3 domain regulator of endocytosis 2) (EH and SH3 domains protein 2) (SH3 domain-containing protein 1B)</t>
+  </si>
+  <si>
     <t>P2R3D_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein phosphatase 2A regulatory subunit B'' subunit delta (PP2A B''-PR59) (PP2A PR59) (Protein phosphatase 2A, 59 kDa regulatory subunit B) (Serine/threonine-protein phosphatase 2A regulatory subunit B'' subunit alpha)</t>
+  </si>
+  <si>
     <t>CF047_MOUSE</t>
   </si>
   <si>
+    <t>Uncharacterized protein C6orf47 homolog</t>
+  </si>
+  <si>
     <t>BNI3L_MOUSE</t>
   </si>
   <si>
+    <t>BCL2/adenovirus E1B 19 kDa protein-interacting protein 3-like (NIP3-like protein X) (NIP3L)</t>
+  </si>
+  <si>
     <t>TOP3B_MOUSE</t>
   </si>
   <si>
+    <t>DNA topoisomerase 3-beta-1 (EC 5.6.2.1) (DNA topoisomerase III beta-1)</t>
+  </si>
+  <si>
     <t>ITPR2_MOUSE</t>
+  </si>
+  <si>
+    <t>Inositol 1,4,5-trisphosphate receptor type 2 (IP3 receptor isoform 2) (IP3R 2) (InsP3R2) (Inositol 1,4,5-trisphosphate type V receptor) (Type 2 inositol 1,4,5-trisphosphate receptor) (Type 2 InsP3 receptor)</t>
   </si>
 </sst>
 </file>
@@ -1038,1165 +1731,1858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A231"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
